--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>435851.523711682</v>
+        <v>436865.1798343575</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1207873.763444804</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18603869.05421057</v>
+        <v>18548951.26311751</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5529810.238073446</v>
+        <v>5539574.041561903</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="S2" t="n">
-        <v>32.98509320445466</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y2" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>147.2847385201584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3.89241773958567</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>182.8542111456044</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -975,28 +977,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>85.31372784089211</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>34.2688659549249</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1136,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>182.8542111456044</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W8" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1224,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>83.34512488872728</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>207.6001488937379</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>182.8542111456044</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>207.6001488937379</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X11" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1449,16 +1451,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1500,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1509,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>26.75447317508932</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>145.9272112248127</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>172.8635119310595</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,10 +1654,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.96396779500064</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1667,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>87.20907807295006</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1692,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>52.55933815222259</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -1740,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1749,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>24.75543250779077</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1807,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1847,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>182.8542111456044</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>207.6001488937379</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>123.108355499463</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1941,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>147.2379120664689</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2096,10 +2098,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.96396779500064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>56.69686991152105</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2214,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>123.1034742504454</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2293,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,7 +2329,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>1.809496073036188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2400,22 +2402,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>48.34508484837221</v>
       </c>
       <c r="G24" t="n">
-        <v>20.75315057824755</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2457,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2536,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,70 +2560,70 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,25 +2639,25 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>45.0246924387623</v>
+        <v>78.19069652883212</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2688,7 +2690,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2710,64 +2712,64 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,28 +2794,28 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>71.01467844038818</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2868,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>56.91690033700354</v>
+        <v>84.56713651463426</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2925,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2989,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.4162677022923</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3120,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3202,52 +3204,52 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3351,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3405,10 +3407,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3442,52 +3444,52 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>241.0142888776591</v>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,16 +3550,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3591,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>137.0062620734511</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3667,61 +3669,61 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>241.0142888776591</v>
@@ -3819,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>29.1427070647979</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>62.86349518004438</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>32.98509320445461</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>207.6001488937379</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="45">
@@ -4062,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4101,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>131.9048541050402</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>207.6001488937379</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4195,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>119.6230178224214</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>299.69886940708</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>505.2230168118805</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>710.747164216681</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>740.7405402829006</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
-        <v>830.4005955749516</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>830.4005955749516</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>679.0176481596488</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="S2" t="n">
-        <v>645.6993721955532</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="T2" t="n">
-        <v>645.6993721955532</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U2" t="n">
-        <v>645.6993721955532</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="V2" t="n">
-        <v>645.6993721955532</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="W2" t="n">
-        <v>645.6993721955532</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X2" t="n">
-        <v>436.0022521008685</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y2" t="n">
-        <v>226.3051320061838</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.9954508538773</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>165.5424215727503</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="D3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
-        <v>222.1321593162995</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="N3" t="n">
-        <v>372.838412043471</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="O3" t="n">
-        <v>578.3625594482714</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="P3" t="n">
-        <v>761.0060370616222</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>830.4005955749516</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>830.4005955749516</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>656.9832510256205</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>656.9832510256205</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>656.9832510256205</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>656.9832510256205</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>656.9832510256205</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>656.9832510256205</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>508.2107878739453</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.60801191149903</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="C4" t="n">
-        <v>16.60801191149903</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="D4" t="n">
-        <v>16.60801191149903</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="E4" t="n">
-        <v>16.60801191149903</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="F4" t="n">
-        <v>16.60801191149903</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="G4" t="n">
-        <v>16.60801191149903</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="H4" t="n">
-        <v>16.60801191149903</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="I4" t="n">
-        <v>16.60801191149903</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="J4" t="n">
-        <v>16.60801191149903</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.92213691921201</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>83.11017511143419</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.8010257668705</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>16.60801191149903</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>16.60801191149903</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>16.60801191149903</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>16.60801191149903</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>16.60801191149903</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>16.60801191149903</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>16.60801191149903</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.60801191149903</v>
+        <v>138.8132928110667</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>226.3051320061838</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>226.3051320061838</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>226.3051320061838</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>226.3051320061838</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.6230178224214</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.69886940708</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>386.0214427354521</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>591.5455901402526</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>740.7405402829006</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>830.4005955749516</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>830.4005955749516</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>645.6993721955532</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>436.0022521008685</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>281.0076152405985</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C6" t="n">
-        <v>281.0076152405985</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D6" t="n">
-        <v>281.0076152405985</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E6" t="n">
-        <v>281.0076152405985</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F6" t="n">
-        <v>281.0076152405985</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>142.276789823214</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>107.6617737071283</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.9655719693364</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>347.4897193741369</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>553.0138667789374</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>555.4818896568217</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>761.0060370616222</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>761.0060370616222</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>656.9832510256205</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>656.9832510256205</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>656.9832510256205</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>656.9832510256205</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>656.9832510256205</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>656.9832510256205</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>449.2229522606665</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>16.60801191149903</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>16.60801191149903</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>620.7034754802669</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>620.7034754802669</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>436.0022521008685</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>436.0022521008685</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>436.0022521008685</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>226.3051320061838</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.6230178224214</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>299.69886940708</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>505.2230168118805</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>710.747164216681</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>740.7405402829006</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>830.4005955749516</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>620.7034754802669</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>620.7034754802669</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>620.7034754802669</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>239.5258321659818</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>239.5258321659818</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>239.5258321659818</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>239.5258321659818</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>239.5258321659818</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>100.7950067485973</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>16.60801191149903</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>16.60801191149903</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.9655719693364</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>347.4897193741369</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>553.0138667789374</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>758.5380141837379</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>830.4005955749516</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>830.4005955749516</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>656.9832510256205</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>656.9832510256205</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>447.2861309309357</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V9" t="n">
-        <v>447.2861309309357</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W9" t="n">
-        <v>447.2861309309357</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>447.2861309309357</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>239.5258321659818</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>16.60801191149903</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>16.60801191149903</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>119.6230178224214</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>299.69886940708</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>505.2230168118805</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>710.747164216681</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>830.4005955749516</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>620.7034754802669</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>411.0063553855821</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>201.3092352908974</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.36214456428474</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C12" t="n">
-        <v>17.36214456428474</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D12" t="n">
-        <v>17.36214456428474</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E12" t="n">
-        <v>17.36214456428474</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F12" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.9655719693364</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>347.4897193741369</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
-        <v>553.0138667789374</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>758.5380141837379</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
-        <v>830.4005955749516</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>628.2140009337177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>628.2140009337177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>628.2140009337177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>601.1892805548396</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>393.3377803493067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>185.5774815843528</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>16.60801191149903</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>16.60801191149903</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>400.914740017355</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C14" t="n">
-        <v>400.914740017355</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D14" t="n">
-        <v>400.914740017355</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E14" t="n">
-        <v>191.2176199226702</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F14" t="n">
-        <v>191.2176199226702</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G14" t="n">
-        <v>16.60801191149903</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
-        <v>16.60801191149903</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.6230178224214</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>180.4972953306516</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>386.0214427354521</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>591.5455901402526</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>740.7405402829006</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>820.3089802067245</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>820.3089802067245</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>820.3089802067245</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T14" t="n">
-        <v>820.3089802067245</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U14" t="n">
-        <v>820.3089802067245</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V14" t="n">
-        <v>820.3089802067245</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W14" t="n">
-        <v>610.6118601120397</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X14" t="n">
-        <v>400.914740017355</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y14" t="n">
-        <v>400.914740017355</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>412.8519752747341</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C15" t="n">
-        <v>412.8519752747341</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D15" t="n">
-        <v>412.8519752747341</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>412.8519752747341</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7617347169335</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>221.0309092995489</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>107.6617737071283</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>17.36214456428474</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M15" t="n">
-        <v>167.3142646386704</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N15" t="n">
-        <v>372.838412043471</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O15" t="n">
-        <v>578.3625594482714</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>761.0060370616222</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>620.7034754802669</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>620.7034754802669</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>620.7034754802669</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>412.8519752747341</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>412.8519752747341</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.10793548086633</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>64.10793548086633</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>64.10793548086633</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>64.10793548086633</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>64.10793548086633</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>64.10793548086633</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>64.10793548086633</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>64.10793548086633</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>39.10244809925949</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.10793548086633</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>64.10793548086633</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>64.10793548086633</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>64.10793548086633</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>64.10793548086633</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>64.10793548086633</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>64.10793548086633</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>64.10793548086633</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.10793548086633</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>411.0063553855821</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>411.0063553855821</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>201.3092352908974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>16.60801191149903</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>196.6838634961576</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>402.2080109009581</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>607.7321583057586</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>756.9271084484067</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>830.4005955749516</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>830.4005955749516</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>830.4005955749516</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>830.4005955749516</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>620.7034754802669</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>411.0063553855821</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>411.0063553855821</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>411.0063553855821</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>411.0063553855821</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>449.1317508200876</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C18" t="n">
-        <v>324.7798765782058</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D18" t="n">
-        <v>175.8454669169545</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E18" t="n">
-        <v>16.60801191149903</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F18" t="n">
-        <v>16.60801191149903</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G18" t="n">
-        <v>16.60801191149903</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H18" t="n">
-        <v>16.60801191149903</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>16.60801191149903</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>141.9655719693364</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>347.4897193741369</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>553.0138667789374</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>624.8764481701511</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O18" t="n">
-        <v>830.4005955749516</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P18" t="n">
-        <v>830.4005955749516</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>830.4005955749516</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>656.9832510256205</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>656.9832510256205</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>656.9832510256205</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>656.9832510256205</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W18" t="n">
-        <v>656.9832510256205</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X18" t="n">
-        <v>449.1317508200876</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y18" t="n">
-        <v>449.1317508200876</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E20" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F20" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>521.0535470733607</v>
+        <v>443.2712565396388</v>
       </c>
       <c r="C21" t="n">
-        <v>521.0535470733607</v>
+        <v>268.8182272585117</v>
       </c>
       <c r="D21" t="n">
-        <v>521.0535470733607</v>
+        <v>268.8182272585117</v>
       </c>
       <c r="E21" t="n">
-        <v>361.8160920679052</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F21" t="n">
-        <v>215.2815340947902</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G21" t="n">
-        <v>76.55070867740571</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5862,19 +5864,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W21" t="n">
-        <v>728.9050472788936</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X21" t="n">
-        <v>521.0535470733607</v>
+        <v>611.4865935597068</v>
       </c>
       <c r="Y21" t="n">
-        <v>521.0535470733607</v>
+        <v>611.4865935597068</v>
       </c>
     </row>
     <row r="22">
@@ -5941,7 +5943,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6022,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>304.9965798960495</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C24" t="n">
-        <v>130.5435506149225</v>
+        <v>515.0172522330638</v>
       </c>
       <c r="D24" t="n">
-        <v>130.5435506149225</v>
+        <v>366.0828425718125</v>
       </c>
       <c r="E24" t="n">
-        <v>130.5435506149225</v>
+        <v>206.845387566357</v>
       </c>
       <c r="F24" t="n">
-        <v>130.5435506149225</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6072,16 +6074,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y24" t="n">
-        <v>304.9965798960495</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C27" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D27" t="n">
-        <v>211.2951883952089</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E27" t="n">
-        <v>211.2951883952089</v>
+        <v>328.0462318675013</v>
       </c>
       <c r="F27" t="n">
-        <v>64.76063042209384</v>
+        <v>328.0462318675013</v>
       </c>
       <c r="G27" t="n">
-        <v>64.76063042209384</v>
+        <v>189.3154064501168</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,16 +6311,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>621.8469951458151</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>860.4511411346975</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W27" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X27" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y27" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>76.77296163243852</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C30" t="n">
-        <v>76.77296163243852</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D30" t="n">
-        <v>76.77296163243852</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E30" t="n">
-        <v>76.77296163243852</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6552,7 +6554,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6573,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>492.3847606029253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>284.5332603973924</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y30" t="n">
-        <v>76.77296163243852</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="31">
@@ -6637,19 +6639,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
         <v>262.7299197543128</v>
@@ -6722,10 +6724,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
         <v>749.627473042513</v>
@@ -6743,7 +6745,7 @@
         <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659515</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W33" t="n">
-        <v>83.81530782185143</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X33" t="n">
-        <v>83.81530782185143</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
         <v>829.5248650203655</v>
@@ -6895,13 +6897,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7017,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>933.9571464551993</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>705.7335281915883</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>470.5814199598456</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W36" t="n">
-        <v>227.1326433157456</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
         <v>829.5248650203655</v>
@@ -7135,10 +7137,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C38" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U38" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V38" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W38" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X38" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y38" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>157.6713068207694</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>157.6713068207694</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>157.6713068207694</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>157.6713068207694</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7259,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>933.9571464551993</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>705.7335281915883</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>325.8866438408374</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7451,10 +7453,10 @@
         <v>802.5825927271064</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>257.2326523711826</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C42" t="n">
-        <v>82.77962309005554</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>82.77962309005554</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>82.77962309005554</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>82.77962309005554</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7533,7 +7535,7 @@
         <v>257.2326523711826</v>
       </c>
       <c r="Y42" t="n">
-        <v>257.2326523711826</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="43">
@@ -7600,10 +7602,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>259.6234079702793</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>259.6234079702793</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>259.6234079702793</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>259.6234079702793</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>259.6234079702793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>49.9262878755946</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>49.9262878755946</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>16.60801191149903</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>180.4972953306516</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>386.0214427354521</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>591.5455901402526</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>740.7405402829006</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>830.4005955749516</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>679.0176481596488</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>679.0176481596488</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>679.0176481596488</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>679.0176481596488</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>679.0176481596488</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>679.0176481596488</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>679.0176481596488</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>469.3205280649641</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.5995995697402</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>176.5995995697402</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>176.5995995697402</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>17.36214456428474</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>17.36214456428474</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>17.36214456428474</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>17.36214456428474</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>17.36214456428474</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>222.1321593162995</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>427.6563067211001</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N45" t="n">
-        <v>633.1804541259006</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O45" t="n">
-        <v>761.0060370616222</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>761.0060370616222</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>729.2310661278373</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>595.9938397591097</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T45" t="n">
-        <v>595.9938397591097</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U45" t="n">
-        <v>595.9938397591097</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V45" t="n">
-        <v>386.296719664425</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W45" t="n">
-        <v>176.5995995697402</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X45" t="n">
-        <v>176.5995995697402</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y45" t="n">
-        <v>176.5995995697402</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.8683050846809</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>695.8683050846809</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>695.8683050846809</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>695.8683050846809</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>695.8683050846809</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>695.8683050846809</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>695.8683050846809</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>695.8683050846809</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>695.8683050846809</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>695.8683050846809</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>723.1824300923938</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>762.370468284616</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>806.0613189400523</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>830.4005955749516</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>830.4005955749516</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>830.4005955749516</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>830.4005955749516</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>830.4005955749516</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>830.4005955749516</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>830.4005955749516</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>830.4005955749516</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>695.8683050846809</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>695.8683050846809</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.8683050846809</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>437.9463821210106</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>437.0132124903288</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>260.3945508825146</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,19 +8066,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>349.7341828157562</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>283.5702501915873</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>350.1963933381824</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,10 +8224,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>317.5407517407799</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>346.154528673612</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>349.7341828157562</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>133.8346644852367</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
-        <v>350.1963933381824</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8459,13 +8461,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>260.3945508825146</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>346.154528673612</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>349.7341828157562</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>338.9418609770712</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>215.1847104961754</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,16 +8698,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>350.9602632987277</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>346.154528673612</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M12" t="n">
-        <v>349.7341828157562</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>338.9418609770712</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>215.1847104961754</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8927,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
-        <v>297.2555841702197</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9012,13 +9014,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>294.3625720302723</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>338.9418609770712</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>350.1963933381824</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>305.4486393174361</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>346.154528673612</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>349.7341828157562</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>203.9301781350643</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>350.1963933381824</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,13 +9494,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,10 +9722,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,7 +9734,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,10 +9968,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P27" t="n">
-        <v>168.5314335381781</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10200,10 +10202,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10905,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>401.3111456964039</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11379,19 +11381,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>346.154528673612</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>349.7341828157562</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>338.9418609770712</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>271.7129948845673</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>175.1336927697427</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22592,16 +22594,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>102.735282389186</v>
       </c>
       <c r="S2" t="n">
-        <v>176.0349763817907</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>162.1309517847311</v>
+        <v>316.2185716685193</v>
       </c>
       <c r="Y2" t="n">
-        <v>178.6377897623157</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>100.311230012675</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22674,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>58.39795725714598</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22720,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>158.3347547678539</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>175.1336927697427</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22793,7 +22795,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>199.2758968479735</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22841,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>186.8768895328647</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>178.6377897623157</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22863,28 +22865,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>59.75548455249177</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>77.96657828157157</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23024,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>171.8288304750786</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23033,10 +23035,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>207.7025886213972</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>131.8746532220293</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23078,16 +23080,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W8" t="n">
-        <v>141.6408198236751</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23112,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>28.89031934776918</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23148,22 +23150,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>18.34123318723692</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189029</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.8796305178762</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>141.6408198236751</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X11" t="n">
-        <v>162.1309517847311</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.6377897623157</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23337,16 +23339,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23388,7 +23390,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23397,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>224.9405099858303</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>59.75548455249168</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23501,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>174.3302211785239</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>242.4392255840756</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23540,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23555,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>141.6408198236751</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>162.1309517847311</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>79.32410557691728</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23580,10 +23582,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>92.5098742411613</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23628,7 +23630,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>18.34123318723692</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23637,10 +23639,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>68.603747608882</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23735,10 +23737,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>147.0828927269451</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>199.0761589266574</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>43.7455040140986</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>120.152109576397</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>49.60014348885274</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23829,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23984,10 +23986,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>303.2739708610529</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>55.53857432497541</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24102,16 +24104,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>82.6695109530321</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24181,10 +24183,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,7 +24217,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>405.0665496686752</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24224,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24260,13 +24262,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24288,22 +24290,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>96.72412754501167</v>
       </c>
       <c r="G24" t="n">
-        <v>116.5903665849631</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24345,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24424,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24446,19 +24448,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24525,25 +24527,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>67.21075179773416</v>
+        <v>34.04474770766434</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24576,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,28 +24682,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>335.8613673013232</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24756,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>88.15231205638034</v>
+        <v>60.50207587874962</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24813,16 +24815,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24877,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24886,13 +24888,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
@@ -24962,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>146.6038018839531</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25008,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>73.45469409868832</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25044,10 +25046,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>170.2754303037659</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25092,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>106.6417163796168</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25211,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25239,7 +25241,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>52.90669720804131</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25281,10 +25283,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25293,10 +25295,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25394,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>134.469915878258</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>140.9160811946027</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>168.5437904531102</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25479,7 +25481,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>8.06295031993281</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>70.35882518776062</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>317.3055321907215</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>145.2236497783945</v>
@@ -25707,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>143.5657919235178</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25719,7 +25721,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>74.48002198316625</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25840,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>175.1336927697427</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,19 +25873,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>207.7025886213972</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>177.4907963659513</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25907,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>178.6377897623157</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="45">
@@ -25950,7 +25952,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25989,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>39.77831699879758</v>
+        <v>142.630753465213</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>25.20043825568737</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>44.09483426718171</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26083,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>467045.2790559784</v>
+        <v>359290.0697948182</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>467045.2790559784</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>467045.2790559784</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>467045.2790559784</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>467045.2790559785</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>467045.2790559783</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490412.1637477179</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490412.1637477179</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490412.1637477181</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>467045.2790559784</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118687.93745243</v>
+        <v>91330.20443997101</v>
       </c>
       <c r="C2" t="n">
-        <v>118687.93745243</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="D2" t="n">
-        <v>118687.9374524301</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="E2" t="n">
-        <v>118687.9374524301</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="F2" t="n">
-        <v>118687.93745243</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="G2" t="n">
-        <v>118687.9374524301</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="H2" t="n">
         <v>124620.5043984993</v>
@@ -26353,7 +26355,7 @@
         <v>124620.5043984993</v>
       </c>
       <c r="P2" t="n">
-        <v>118687.9374524301</v>
+        <v>124620.5043984993</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69571.58469771611</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26381,16 +26383,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>9015.435694921785</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>54317.33335715316</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32011.49547309618</v>
+        <v>24456.32110105364</v>
       </c>
       <c r="C4" t="n">
-        <v>32011.49547309618</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="D4" t="n">
-        <v>32011.49547309618</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="E4" t="n">
-        <v>32011.49547309618</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="F4" t="n">
-        <v>32011.49547309618</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="G4" t="n">
-        <v>32011.49547309618</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="H4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
         <v>33649.84678425771</v>
@@ -26442,7 +26444,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
         <v>33649.84678425771</v>
@@ -26457,7 +26459,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="P4" t="n">
-        <v>32011.49547309618</v>
+        <v>33649.84678425771</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46249.68905273926</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46249.68905273926</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46249.68905273926</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26509,7 +26511,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29144.83177112153</v>
+        <v>12059.44231571105</v>
       </c>
       <c r="C6" t="n">
-        <v>40426.75292659459</v>
+        <v>-17886.93333618819</v>
       </c>
       <c r="D6" t="n">
-        <v>40426.75292659463</v>
+        <v>42689.38885047992</v>
       </c>
       <c r="E6" t="n">
-        <v>74054.35292659463</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="F6" t="n">
-        <v>74054.3529265946</v>
+        <v>76316.98885047995</v>
       </c>
       <c r="G6" t="n">
-        <v>74054.35292659463</v>
+        <v>76316.98885047993</v>
       </c>
       <c r="H6" t="n">
-        <v>67301.55315555814</v>
+        <v>76316.9888504799</v>
       </c>
       <c r="I6" t="n">
-        <v>76316.98885047992</v>
+        <v>76316.98885047989</v>
       </c>
       <c r="J6" t="n">
-        <v>21999.65549332675</v>
+        <v>62315.75671020061</v>
       </c>
       <c r="K6" t="n">
-        <v>76316.98885047992</v>
+        <v>28060.03591684729</v>
       </c>
       <c r="L6" t="n">
-        <v>76316.98885047992</v>
+        <v>76316.9888504799</v>
       </c>
       <c r="M6" t="n">
-        <v>76316.98885047992</v>
+        <v>76316.98885047993</v>
       </c>
       <c r="N6" t="n">
-        <v>76316.98885047992</v>
+        <v>76316.9888504799</v>
       </c>
       <c r="O6" t="n">
-        <v>76316.98885047989</v>
+        <v>76316.98885047993</v>
       </c>
       <c r="P6" t="n">
-        <v>74054.35292659461</v>
+        <v>76316.9888504799</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26829,7 +26831,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27027,16 +27029,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>33.41413998392116</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>33.41413998392116</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>207.6001488937379</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O2" t="n">
-        <v>30.29633946082792</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>152.228538108254</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="O3" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>87.19451851350715</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>207.6001488937379</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.492952401903357</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,13 +35181,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>30.29633946082792</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>207.6001488937379</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>72.58846605173098</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,16 +35418,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>120.862051877041</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>207.6001488937379</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M12" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>72.58846605173098</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35650,13 +35652,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>61.48916920023249</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>152.228538108254</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>207.6001488937379</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>74.21564356216658</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>72.58846605173098</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36212,13 +36214,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>113.3808631277494</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,7 +36454,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36677,7 +36679,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,10 +36688,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P27" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36920,10 +36922,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>165.5447307264167</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N44" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>207.6001488937379</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>129.1167504401228</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>436865.1798343575</v>
+        <v>332399.9720962</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18548951.26311751</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5539574.041561903</v>
+        <v>5526525.162070665</v>
       </c>
     </row>
     <row r="11">
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>47.13383555196372</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>53.51252900994975</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>53.51252900994975</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>47.13383555196375</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>56.18438237580115</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.89241773958567</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>101.5940185947056</v>
       </c>
       <c r="F6" t="n">
-        <v>85.31372784089211</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>31.15099944008764</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>212.285385643442</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>48.32160706581265</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.0142888776591</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>212.285385643442</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>145.9272112248127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>82.96396779500064</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="15">
@@ -1685,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>87.20907807295006</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1888,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>147.2379120664689</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,61 +2089,61 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,16 +2162,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2180,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>46.04811363038955</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>123.1034742504454</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>48.34508484837221</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -2453,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2642,22 +2642,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>78.19069652883212</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,19 +2803,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>71.01467844038818</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="30">
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>84.56713651463426</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>204.7452777895381</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>3.265316057196634</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3116,16 +3116,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>138.8041826429323</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>29.8892983910557</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3407,13 +3407,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>137.0062620734511</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>52.42556848774763</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3784,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>29.1427070647979</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>62.35969771424954</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>57.25840604064623</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>161.0727123199487</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>214.050116039799</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>166.4401811388256</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>112.3871215328157</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
-        <v>112.3871215328157</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U2" t="n">
-        <v>58.33406192680583</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V2" t="n">
-        <v>58.33406192680583</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="W2" t="n">
-        <v>58.33406192680583</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="X2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.9439968277793</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C3" t="n">
-        <v>51.89093722176946</v>
+        <v>232.4307839502161</v>
       </c>
       <c r="D3" t="n">
-        <v>4.28100232079598</v>
+        <v>232.4307839502161</v>
       </c>
       <c r="E3" t="n">
-        <v>4.28100232079598</v>
+        <v>73.19332894476057</v>
       </c>
       <c r="F3" t="n">
-        <v>4.28100232079598</v>
+        <v>73.19332894476057</v>
       </c>
       <c r="G3" t="n">
-        <v>4.28100232079598</v>
+        <v>73.19332894476057</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
-        <v>4.28100232079598</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N3" t="n">
-        <v>55.11790488024824</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>159.9970564337892</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>159.9970564337892</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>159.9970564337892</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W3" t="n">
-        <v>159.9970564337892</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X3" t="n">
-        <v>159.9970564337892</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y3" t="n">
-        <v>159.9970564337892</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>134.8815577205762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W5" t="n">
-        <v>506.1786963984129</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X5" t="n">
-        <v>262.7299197543128</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>588.0815197256143</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C6" t="n">
-        <v>413.6284904444873</v>
+        <v>232.4307839502161</v>
       </c>
       <c r="D6" t="n">
-        <v>264.694080783236</v>
+        <v>232.4307839502161</v>
       </c>
       <c r="E6" t="n">
-        <v>105.4566257777805</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y6" t="n">
-        <v>756.2968567456824</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U9" t="n">
-        <v>914.2479596093278</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V9" t="n">
-        <v>679.0958513775852</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W11" t="n">
-        <v>749.627473042513</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>648.4405950311615</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>473.9875657500345</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>325.0531560887832</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>165.8157010833278</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2053859195205</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4136778972854</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>816.6559320512295</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>718.7806050553886</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="C14" t="n">
-        <v>718.7806050553886</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="D14" t="n">
-        <v>718.7806050553886</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="E14" t="n">
-        <v>718.7806050553886</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553886</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S14" t="n">
-        <v>718.7806050553886</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T14" t="n">
-        <v>718.7806050553886</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U14" t="n">
-        <v>718.7806050553886</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V14" t="n">
-        <v>718.7806050553886</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W14" t="n">
-        <v>718.7806050553886</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X14" t="n">
-        <v>718.7806050553886</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y14" t="n">
-        <v>718.7806050553886</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>668.2068788942177</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C15" t="n">
-        <v>668.2068788942177</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>19.28114311021272</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>257.8852890990952</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N15" t="n">
-        <v>496.4894350879777</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y15" t="n">
-        <v>756.2968567456824</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V18" t="n">
-        <v>110.334904905842</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W18" t="n">
-        <v>110.334904905842</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5706,16 +5706,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>443.2712565396388</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C21" t="n">
-        <v>268.8182272585117</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="D21" t="n">
-        <v>268.8182272585117</v>
+        <v>372.3205348328715</v>
       </c>
       <c r="E21" t="n">
-        <v>109.5807722530562</v>
+        <v>213.083079827416</v>
       </c>
       <c r="F21" t="n">
-        <v>109.5807722530562</v>
+        <v>66.54852185430101</v>
       </c>
       <c r="G21" t="n">
-        <v>109.5807722530562</v>
+        <v>66.54852185430101</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>66.54852185430101</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5837,46 +5837,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X21" t="n">
-        <v>611.4865935597068</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y21" t="n">
-        <v>611.4865935597068</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="22">
@@ -5946,7 +5946,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5974,10 +5974,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6022,16 +6022,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W23" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="V23" t="n">
+      <c r="X23" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="W23" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X23" t="n">
-        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
         <v>506.1786963984129</v>
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>689.4702815141908</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C24" t="n">
-        <v>515.0172522330638</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D24" t="n">
-        <v>366.0828425718125</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E24" t="n">
-        <v>206.845387566357</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6071,16 +6071,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
         <v>894.6625969973069</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V24" t="n">
-        <v>689.4702815141908</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W24" t="n">
-        <v>689.4702815141908</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X24" t="n">
-        <v>689.4702815141908</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y24" t="n">
-        <v>689.4702815141908</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="25">
@@ -6183,7 +6183,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>328.0462318675013</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>328.0462318675013</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>189.3154064501168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,16 +6311,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>487.2836868729568</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>487.2836868729568</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6417,19 +6417,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>588.0815197256143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>413.6284904444873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>264.694080783236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>105.4566257777805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6554,10 +6554,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X30" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6639,25 +6639,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D32" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E32" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="G32" t="n">
         <v>262.7299197543128</v>
@@ -6727,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>411.587349213889</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>411.587349213889</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>411.587349213889</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6782,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>933.8659450146204</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>705.6423267510095</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>470.4902185192667</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>227.0414418751666</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>411.587349213889</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>125.0774898247174</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>125.0774898247174</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>125.0774898247174</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7025,10 +7025,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>125.0774898247174</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>125.0774898247174</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>125.0774898247174</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>125.0774898247174</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>157.6713068207694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>157.6713068207694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>157.6713068207694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6713068207694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7256,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>533.6469426057913</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>533.6469426057913</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>325.8866438408374</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7368,7 +7368,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057937</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686978</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>802.5825927271064</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>802.5825927271064</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>802.5825927271064</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>802.5825927271064</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W41" t="n">
-        <v>802.5825927271064</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X41" t="n">
-        <v>802.5825927271064</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y41" t="n">
-        <v>559.1338160830064</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49.47235360622864</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>74.24228005117135</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>304.2053859195205</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X42" t="n">
-        <v>257.2326523711826</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y42" t="n">
-        <v>49.47235360622864</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>122.2961490211351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>302.3720006057937</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>519.3476278686978</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424092</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y44" t="n">
-        <v>749.627473042513</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>238.668476211275</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>249.2442489785619</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>487.8483949674443</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>934.7112791079849</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>934.7112791079849</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>706.487660844374</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>471.3355526126313</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>227.8867759685313</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X45" t="n">
-        <v>20.03527576299844</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>280.7634702223003</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8461,16 +8461,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8698,16 +8698,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>299.7328472056018</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>155.3219763666824</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9011,22 +9011,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>360.302996258564</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -9254,13 +9254,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9485,7 +9485,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9494,13 +9494,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9731,7 +9731,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -9959,19 +9959,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10202,13 +10202,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,13 +10673,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,13 +11065,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11141,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11299,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11381,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O45" t="n">
-        <v>369.031319612638</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>102.735282389186</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>197.8331238978867</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>316.2185716685193</v>
+        <v>348.5708004529261</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>100.311230012675</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22643,7 +22643,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>56.05106186069531</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22676,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22691,10 +22691,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22722,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>158.3347547678539</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9379459173085</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22764,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22831,28 +22831,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>191.9448501240437</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -22862,25 +22862,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>56.05106186069531</v>
       </c>
       <c r="F6" t="n">
-        <v>59.75548455249177</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22922,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23068,10 +23068,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>177.8690701461577</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23080,16 +23080,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>115.4668728266929</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>99.1234584988261</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>176.6302781386795</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23314,19 +23314,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>136.955583073971</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23390,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>59.75548455249168</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>384.1517380750474</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>126.0561017912447</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23573,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.32410557691728</v>
+        <v>158.2215652569456</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23636,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23706,7 +23706,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946079</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>302.3991346476606</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23776,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23831,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>85.56267508295639</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23977,16 +23977,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,16 +24022,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24050,16 +24050,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24068,10 +24068,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>43.34851922102553</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24113,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>82.6695109530321</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24186,10 +24186,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24262,19 +24262,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24287,19 +24287,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>96.72412754501167</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>73.45469409868832</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24341,13 +24341,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24423,10 +24423,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24499,19 +24499,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24530,22 +24530,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>34.04474770766434</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,19 +24691,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>335.8613673013232</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="30">
@@ -24758,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>60.50207587874962</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>46.94970537138147</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24879,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24894,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24928,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
@@ -24967,16 +24967,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>219.8305335069347</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25004,16 +25004,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>18.8408978124686</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>170.2754303037659</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,16 +25156,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25213,7 +25213,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25241,7 +25241,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>52.90669720804131</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25283,10 +25283,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>168.5437904531102</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25481,7 +25481,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>8.06295031993281</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25523,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25608,10 +25608,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>330.3082731757329</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25672,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25684,7 +25684,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>143.5657919235178</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25918,10 +25918,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>85.08536785038922</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25994,22 +25994,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>142.630753465213</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>359290.0697948182</v>
+        <v>465589.1000812334</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490412.1637477182</v>
+        <v>465589.1000812332</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490412.1637477181</v>
+        <v>465589.1000812332</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490412.1637477182</v>
+        <v>465589.1000812334</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490412.1637477181</v>
+        <v>465589.1000812334</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490412.1637477181</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490412.1637477181</v>
+        <v>490412.1637477179</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490412.1637477182</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490412.1637477181</v>
+        <v>490412.1637477179</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490412.1637477182</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490412.1637477182</v>
+        <v>465589.1000812334</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490412.1637477181</v>
+        <v>465589.1000812332</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91330.20443997101</v>
+        <v>118318.2313761987</v>
       </c>
       <c r="C2" t="n">
-        <v>124620.5043984993</v>
+        <v>118318.2313761987</v>
       </c>
       <c r="D2" t="n">
-        <v>124620.5043984993</v>
+        <v>118318.2313761987</v>
       </c>
       <c r="E2" t="n">
-        <v>124620.5043984993</v>
+        <v>118318.2313761987</v>
       </c>
       <c r="F2" t="n">
-        <v>124620.5043984993</v>
+        <v>118318.2313761987</v>
       </c>
       <c r="G2" t="n">
         <v>124620.5043984993</v>
@@ -26352,10 +26352,10 @@
         <v>124620.5043984993</v>
       </c>
       <c r="O2" t="n">
-        <v>124620.5043984993</v>
+        <v>118318.2313761987</v>
       </c>
       <c r="P2" t="n">
-        <v>124620.5043984993</v>
+        <v>118318.2313761987</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>68873.75658168984</v>
       </c>
       <c r="C3" t="n">
-        <v>60576.32218666811</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9729.042974167098</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14001.23214027929</v>
+        <v>53772.51089020943</v>
       </c>
       <c r="K3" t="n">
-        <v>48256.95293363261</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24456.32110105364</v>
+        <v>31909.3965941043</v>
       </c>
       <c r="C4" t="n">
-        <v>33649.84678425771</v>
+        <v>31909.3965941043</v>
       </c>
       <c r="D4" t="n">
-        <v>33649.84678425771</v>
+        <v>31909.3965941043</v>
       </c>
       <c r="E4" t="n">
-        <v>33649.84678425771</v>
+        <v>31909.3965941043</v>
       </c>
       <c r="F4" t="n">
-        <v>33649.84678425771</v>
+        <v>31909.3965941043</v>
       </c>
       <c r="G4" t="n">
         <v>33649.84678425771</v>
@@ -26444,7 +26444,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
-        <v>33649.84678425771</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="L4" t="n">
         <v>33649.84678425771</v>
@@ -26456,10 +26456,10 @@
         <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>33649.84678425771</v>
+        <v>31909.3965941043</v>
       </c>
       <c r="P4" t="n">
-        <v>33649.84678425771</v>
+        <v>31909.3965941043</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36881.16176380494</v>
+        <v>46123.08494184745</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>46123.08494184745</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>46123.08494184745</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26508,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
       <c r="P5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12059.44231571105</v>
+        <v>-41226.16889630338</v>
       </c>
       <c r="C6" t="n">
-        <v>-17886.93333618819</v>
+        <v>27647.58768538642</v>
       </c>
       <c r="D6" t="n">
-        <v>42689.38885047992</v>
+        <v>27647.58768538644</v>
       </c>
       <c r="E6" t="n">
-        <v>76316.98885047992</v>
+        <v>61275.18768538645</v>
       </c>
       <c r="F6" t="n">
-        <v>76316.98885047995</v>
+        <v>61275.18768538644</v>
       </c>
       <c r="G6" t="n">
-        <v>76316.98885047993</v>
+        <v>54369.93525627236</v>
       </c>
       <c r="H6" t="n">
-        <v>76316.9888504799</v>
+        <v>64098.97823043944</v>
       </c>
       <c r="I6" t="n">
-        <v>76316.98885047989</v>
+        <v>64098.97823043942</v>
       </c>
       <c r="J6" t="n">
-        <v>62315.75671020061</v>
+        <v>10326.46734023002</v>
       </c>
       <c r="K6" t="n">
-        <v>28060.03591684729</v>
+        <v>64098.97823043945</v>
       </c>
       <c r="L6" t="n">
-        <v>76316.9888504799</v>
+        <v>64098.97823043947</v>
       </c>
       <c r="M6" t="n">
-        <v>76316.98885047993</v>
+        <v>64098.97823043942</v>
       </c>
       <c r="N6" t="n">
-        <v>76316.9888504799</v>
+        <v>64098.97823043945</v>
       </c>
       <c r="O6" t="n">
-        <v>76316.98885047993</v>
+        <v>61275.18768538645</v>
       </c>
       <c r="P6" t="n">
-        <v>76316.9888504799</v>
+        <v>61275.18768538645</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26828,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5017598677093</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>35.49644443937865</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677093</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677093</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>35.49644443937865</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>53.51252900994975</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>51.35040662570936</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570935</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,13 +34941,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>43.28534947792182</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35418,16 +35418,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>161.1784674257276</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35655,16 +35655,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>217.7067518141195</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36214,13 +36214,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36451,7 +36451,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36922,13 +36922,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38019,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655597</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="O45" t="n">
-        <v>226.4350751681936</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
